--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>440621.5385695738</v>
+        <v>437339.8706939356</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514374</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>190.3453970742848</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>89.36434653028495</v>
       </c>
     </row>
     <row r="7">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1184,13 +1184,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>35.00246782997241</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="G11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7.778646031951277</v>
       </c>
       <c r="H11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1661,13 +1661,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1695,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>135.1603019826155</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -1740,7 +1740,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1844,16 +1844,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1862,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,19 +1971,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>19.7279353865638</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2135,13 +2135,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>9.991949277019346</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>4.3203725898889</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2296,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,16 +2327,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,19 +2360,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>51.72215467797748</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>142.1426809224807</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>37.83939432415846</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2412,13 +2412,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,65 +2552,65 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S26" t="n">
+        <v>68.38541766120755</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>53.54481600471661</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>29.90723668598427</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2755,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2871,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2883,16 +2883,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>90.89327483926864</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>89.98138655216532</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2928,16 +2928,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2953,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
+        <v>3.26531605719669</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,13 +3071,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>190.3453970742849</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>125.7440854491577</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3168,13 +3168,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -3408,7 +3408,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3442,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="39">
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>29.3067104655175</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3594,16 +3594,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>27.76135120560875</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3700,13 +3700,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
       <c r="X41" t="n">
-        <v>23.81301614990503</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>104.954515658907</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3882,10 +3882,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>37.15414074677635</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3907,43 +3907,43 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3995,10 +3995,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>50.46697834767978</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,22 +4019,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V44" t="n">
-        <v>102.3382270926889</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4053,19 +4053,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>110.6711786524735</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>1.944519418634053</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4352,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="3">
@@ -4416,10 +4416,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4510,28 +4510,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>705.5748017933107</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>531.1217725121837</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>382.1873628509324</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4650,46 +4650,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>873.7901388133787</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.35113235729608</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>31.35113235729608</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>31.35113235729608</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E8" t="n">
-        <v>31.35113235729608</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729608</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4832,22 +4832,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>31.35113235729608</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>31.35113235729608</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>31.35113235729608</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>31.35113235729608</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,19 +4887,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4917,16 +4917,16 @@
         <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>259.0600686093459</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W9" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4978,22 +4978,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
         <v>19.28114311021272</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C11" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D11" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E11" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F11" t="n">
-        <v>495.259035872464</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I11" t="n">
         <v>31.35113235729608</v>
@@ -5069,22 +5069,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5127,13 +5127,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5309,19 +5309,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>487.2836868729568</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C15" t="n">
-        <v>487.2836868729568</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="D15" t="n">
-        <v>487.2836868729568</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="E15" t="n">
-        <v>487.2836868729568</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="G15" t="n">
         <v>223.7040404982626</v>
@@ -5361,10 +5361,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
         <v>542.809531908403</v>
@@ -5379,28 +5379,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U15" t="n">
-        <v>487.2836868729568</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V15" t="n">
-        <v>487.2836868729568</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W15" t="n">
-        <v>487.2836868729568</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X15" t="n">
-        <v>487.2836868729568</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y15" t="n">
-        <v>487.2836868729568</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5455,31 +5455,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C17" t="n">
-        <v>720.6083788665362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D17" t="n">
-        <v>477.1596022224361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E17" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5619,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>862.8876260635219</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5695,22 +5695,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>251.810259228364</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C20" t="n">
-        <v>251.810259228364</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D20" t="n">
-        <v>251.810259228364</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="E20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>738.7078125165641</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U20" t="n">
-        <v>495.259035872464</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V20" t="n">
-        <v>251.810259228364</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W20" t="n">
-        <v>251.810259228364</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X20" t="n">
-        <v>251.810259228364</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y20" t="n">
-        <v>251.810259228364</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>340.2687303644548</v>
+        <v>203.827050448935</v>
       </c>
       <c r="C21" t="n">
-        <v>165.8157010833278</v>
+        <v>29.37402116780802</v>
       </c>
       <c r="D21" t="n">
-        <v>165.8157010833278</v>
+        <v>29.37402116780802</v>
       </c>
       <c r="E21" t="n">
-        <v>165.8157010833278</v>
+        <v>29.37402116780802</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5835,13 +5835,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X21" t="n">
-        <v>716.2443661494767</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y21" t="n">
-        <v>508.4840673845228</v>
+        <v>203.827050448935</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>231.8830517671884</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y23" t="n">
-        <v>231.8830517671884</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>612.718391167419</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="C24" t="n">
-        <v>612.718391167419</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="D24" t="n">
-        <v>463.7839815061678</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="E24" t="n">
-        <v>304.5465265007123</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y24" t="n">
-        <v>756.2968567456824</v>
+        <v>547.1910343172051</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>756.2968567456824</v>
+        <v>528.0732384820715</v>
       </c>
       <c r="C27" t="n">
-        <v>756.2968567456824</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D27" t="n">
-        <v>607.3624470844311</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E27" t="n">
-        <v>448.1249920789756</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F27" t="n">
-        <v>301.5904341058606</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>162.8596086884761</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>49.49047309605542</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,22 +6306,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6336,19 +6336,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y27" t="n">
-        <v>756.2968567456824</v>
+        <v>528.0732384820715</v>
       </c>
     </row>
     <row r="28">
@@ -6403,25 +6403,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D29" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E29" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F29" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6506,7 +6506,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>250.5774899069169</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>250.5774899069169</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>250.5774899069169</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>111.8466644895324</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6552,40 +6552,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>873.1668660640046</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>873.1668660640046</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>644.9432478003937</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V30" t="n">
-        <v>644.9432478003937</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W30" t="n">
-        <v>401.4944711562937</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="X30" t="n">
-        <v>401.4944711562937</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="Y30" t="n">
-        <v>193.7341723913397</v>
+        <v>399.5118995681682</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.7999090013961</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W32" t="n">
-        <v>761.6974622895962</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X32" t="n">
-        <v>518.2486856454962</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.7999090013961</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6780,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6807,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>837.0429277842143</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>608.8193095206034</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>373.6672012888606</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>373.6672012888606</v>
       </c>
       <c r="X33" t="n">
-        <v>49.38115216564972</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6980,7 +6980,7 @@
         <v>223.6192102101089</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,19 +7041,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V36" t="n">
-        <v>298.4948343740486</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W36" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X36" t="n">
         <v>19.28114311021272</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
         <v>19.28114311021272</v>
@@ -7138,7 +7138,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7217,7 +7217,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>582.8795121963512</v>
+        <v>354.6558939327403</v>
       </c>
       <c r="C39" t="n">
-        <v>582.8795121963512</v>
+        <v>354.6558939327403</v>
       </c>
       <c r="D39" t="n">
-        <v>582.8795121963512</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E39" t="n">
-        <v>423.6420571908957</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F39" t="n">
-        <v>277.1074992177807</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>138.3766738003962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7284,19 +7284,19 @@
         <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>790.6398109613051</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V39" t="n">
-        <v>790.6398109613051</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W39" t="n">
-        <v>790.6398109613051</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X39" t="n">
-        <v>790.6398109613051</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y39" t="n">
-        <v>582.8795121963512</v>
+        <v>354.6558939327403</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H41" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T41" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U41" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V41" t="n">
-        <v>499.3853800778592</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W41" t="n">
-        <v>499.3853800778592</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X41" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>284.5332603973924</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="C42" t="n">
-        <v>178.5185981156682</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D42" t="n">
-        <v>178.5185981156682</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7494,19 +7494,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7521,19 +7521,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>492.3847606029253</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>284.5332603973924</v>
+        <v>683.0789437687823</v>
       </c>
       <c r="Y42" t="n">
-        <v>284.5332603973924</v>
+        <v>475.3186450038284</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>366.1018663125844</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>122.6530896684844</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V44" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W44" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X44" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y44" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.8157010833278</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C45" t="n">
-        <v>165.8157010833278</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D45" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
         <v>19.28114311021272</v>
@@ -7728,16 +7728,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
         <v>781.4136778972854</v>
@@ -7758,19 +7758,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>852.2680861647034</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>617.1159779329607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>373.6672012888606</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>165.8157010833278</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y45" t="n">
-        <v>165.8157010833278</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="46">
@@ -8064,13 +8064,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7328472056018</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,10 +8535,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M9" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,16 +8775,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9009,13 +9009,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>312.04082470182</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,16 +9483,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10200,16 +10200,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>242.4075215744184</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>349.0484638974528</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10674,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,13 +11142,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11157,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,19 +11376,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22550,10 +22550,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>260.2725546269769</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22592,28 +22592,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22726,10 +22726,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,16 +22784,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>174.9274946967228</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22805,7 +22805,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,19 +22829,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22860,16 +22860,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22878,10 +22878,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22908,28 +22908,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>116.3183492470194</v>
       </c>
     </row>
     <row r="7">
@@ -22954,7 +22954,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -22966,7 +22966,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23033,13 +23033,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>312.2938397833332</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23072,13 +23072,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23112,16 +23112,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>102.3410493332382</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23157,10 +23157,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23236,7 +23236,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>206.5399494528818</v>
       </c>
       <c r="G11" t="n">
-        <v>407.5240914831838</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23504,19 +23504,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23583,10 +23583,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>21.46887964564732</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.183215180595113</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23628,7 +23628,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23732,16 +23732,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23750,10 +23750,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23774,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>130.418315862507</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,19 +23859,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,13 +23969,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>362.202434685698</v>
+        <v>301.5956630564418</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23987,7 +23987,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24014,7 +24014,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24023,13 +24023,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24057,7 +24057,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>135.0772631163645</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24111,7 +24111,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>201.4526126135886</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,16 +24215,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,19 +24248,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>199.623498229859</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24282,16 +24282,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>24.3905027273866</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>119.8056861312425</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24300,13 +24300,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,7 +24333,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24345,13 +24345,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24415,7 +24415,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,19 +24440,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,16 +24488,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>140.6346519250378</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>119.1636829835991</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24534,13 +24534,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>59.4893961654308</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24576,7 +24576,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24643,13 +24643,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,22 +24677,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>182.3977453746509</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24759,10 +24759,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24771,16 +24771,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>21.34216939722782</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,10 +24804,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>81.7017845516725</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24816,16 +24816,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24841,10 +24841,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>362.0075757138109</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24932,13 +24932,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,13 +24959,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>158.8955716431281</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25005,7 +25005,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25047,7 +25047,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>74.42064324566388</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25056,13 +25056,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25166,7 +25166,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25220,7 +25220,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25281,7 +25281,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25296,7 +25296,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>170.365719729939</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25330,10 +25330,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
         <v>22.26949182588285</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="38">
@@ -25388,25 +25388,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="39">
@@ -25473,7 +25473,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>118.1383550991213</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25482,16 +25482,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>84.47409303088772</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25524,7 +25524,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25588,13 +25588,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25606,7 +25606,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>121.6721164735665</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25646,7 +25646,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25685,16 +25685,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>345.918084528564</v>
+        <v>366.4657846212723</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,16 +25704,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>67.75398332940877</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25722,7 +25722,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25761,7 +25761,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25770,10 +25770,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>168.6188444567011</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25795,7 +25795,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25883,10 +25883,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>160.0089112227261</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,22 +25907,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>225.414031377446</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25941,19 +25941,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25998,19 +25998,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>115.2702034285013</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>203.8284657848434</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575743</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575743</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490293.0738575743</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490293.0738575747</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="16">
@@ -26314,19 +26314,19 @@
         <v>108004.4371453661</v>
       </c>
       <c r="C2" t="n">
+        <v>108004.437145366</v>
+      </c>
+      <c r="D2" t="n">
         <v>108004.4371453661</v>
-      </c>
-      <c r="D2" t="n">
-        <v>108004.437145366</v>
       </c>
       <c r="E2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="F2" t="n">
+        <v>108004.4371453661</v>
+      </c>
+      <c r="G2" t="n">
         <v>108004.437145366</v>
-      </c>
-      <c r="G2" t="n">
-        <v>108004.4371453661</v>
       </c>
       <c r="H2" t="n">
         <v>108004.437145366</v>
@@ -26335,7 +26335,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="J2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="K2" t="n">
         <v>108004.437145366</v>
@@ -26347,10 +26347,10 @@
         <v>108004.437145366</v>
       </c>
       <c r="N2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="O2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="P2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37568.72254537862</v>
+        <v>-37960.95279092419</v>
       </c>
       <c r="C6" t="n">
-        <v>43200.70898616911</v>
+        <v>42808.47874062352</v>
       </c>
       <c r="D6" t="n">
-        <v>43200.70898616908</v>
+        <v>42808.47874062356</v>
       </c>
       <c r="E6" t="n">
-        <v>76828.30898616908</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="F6" t="n">
-        <v>76828.30898616908</v>
+        <v>76436.07874062356</v>
       </c>
       <c r="G6" t="n">
-        <v>76828.30898616911</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="H6" t="n">
-        <v>76828.30898616907</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="I6" t="n">
-        <v>76828.30898616908</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="J6" t="n">
-        <v>13768.36638706286</v>
+        <v>13376.13614151732</v>
       </c>
       <c r="K6" t="n">
-        <v>76828.30898616908</v>
+        <v>76436.0787406235</v>
       </c>
       <c r="L6" t="n">
-        <v>76828.3089861691</v>
+        <v>76436.07874062355</v>
       </c>
       <c r="M6" t="n">
-        <v>76828.30898616907</v>
+        <v>76436.0787406235</v>
       </c>
       <c r="N6" t="n">
-        <v>76828.30898616908</v>
+        <v>76436.07874062356</v>
       </c>
       <c r="O6" t="n">
-        <v>76828.30898616908</v>
+        <v>76436.07874062355</v>
       </c>
       <c r="P6" t="n">
-        <v>76828.30898616908</v>
+        <v>76436.0787406235</v>
       </c>
     </row>
   </sheetData>
@@ -34784,13 +34784,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34948,7 +34948,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,7 +35018,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1784674257276</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,7 +35179,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35255,10 +35255,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M9" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35422,7 +35422,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35495,16 +35495,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35729,13 +35729,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35890,7 +35890,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9067907798017</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36920,16 +36920,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>99.8112771299739</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,10 +37312,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38096,19 +38096,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N45" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437339.8706939356</v>
+        <v>439044.6267082022</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006066</v>
       </c>
     </row>
     <row r="9">
@@ -662,70 +664,70 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S2" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="3">
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -798,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>4.580549094716531</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.0339917726843</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>37.10634673358876</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>190.3453970742848</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -984,10 +986,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -996,7 +998,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>89.36434653028495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1142,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G8" t="n">
-        <v>103.0088977318019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>241.0142888776591</v>
@@ -1175,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1212,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,19 +1262,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,70 +1369,70 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>200.3360962888297</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H11" t="n">
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,31 +1448,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>7.746371725236246</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,61 +1618,61 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1698,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>135.1603019826155</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>34.66067414728066</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -1743,10 +1745,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1807,7 +1809,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>82.96396779500064</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>120.9273370453295</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1923,19 +1925,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>86.51901279370519</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>80.33470701582003</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2160,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>9.991949277019346</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2208,25 +2210,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>237.3811362441418</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2299,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2327,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2372,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>241.0142888776591</v>
@@ -2397,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>37.83939432415846</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2457,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2473,55 +2475,55 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2558,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>190.3453970742848</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2597,28 +2599,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>68.38541766120755</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,22 +2636,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>53.54481600471661</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>21.46505450110889</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2691,7 +2693,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2700,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,64 +2803,64 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>80.33470701582003</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,28 +2873,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>90.89327483926864</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2956,55 +2958,55 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3117,19 +3119,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>89.51051864809682</v>
       </c>
       <c r="T33" t="n">
-        <v>125.7440854491577</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="W35" t="n">
         <v>241.0142888776591</v>
@@ -3332,7 +3334,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3345,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>32.44882437674524</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>35.40726547353833</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -3402,10 +3404,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D38" t="n">
         <v>241.0142888776591</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3579,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>29.3067104655175</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3636,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>150.4149128677507</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3700,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>130.4655268502615</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3800,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X41" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>241.0142888776591</v>
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3834,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3873,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>37.15414074677635</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,20 +3976,20 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>50.46697834767978</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -4019,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>1.944519418634053</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>54.82907102477792</v>
       </c>
     </row>
     <row r="46">
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>601.5428246748836</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U2" t="n">
-        <v>358.0940480307835</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V2" t="n">
-        <v>358.0940480307835</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W2" t="n">
-        <v>358.0940480307835</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X2" t="n">
-        <v>358.0940480307835</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y2" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4446,13 +4448,13 @@
         <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.03213664411894</v>
+        <v>113.583345248266</v>
       </c>
       <c r="C4" t="n">
-        <v>64.03213664411894</v>
+        <v>113.583345248266</v>
       </c>
       <c r="D4" t="n">
-        <v>64.03213664411894</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E4" t="n">
-        <v>64.03213664411894</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F4" t="n">
-        <v>64.03213664411894</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G4" t="n">
-        <v>64.03213664411894</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H4" t="n">
-        <v>64.03213664411894</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I4" t="n">
-        <v>64.03213664411894</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4509,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>113.583345248266</v>
       </c>
       <c r="R4" t="n">
-        <v>64.03213664411894</v>
+        <v>113.583345248266</v>
       </c>
       <c r="S4" t="n">
-        <v>64.03213664411894</v>
+        <v>113.583345248266</v>
       </c>
       <c r="T4" t="n">
-        <v>64.03213664411894</v>
+        <v>113.583345248266</v>
       </c>
       <c r="U4" t="n">
-        <v>64.03213664411894</v>
+        <v>113.583345248266</v>
       </c>
       <c r="V4" t="n">
-        <v>64.03213664411894</v>
+        <v>113.583345248266</v>
       </c>
       <c r="W4" t="n">
-        <v>64.03213664411894</v>
+        <v>113.583345248266</v>
       </c>
       <c r="X4" t="n">
-        <v>64.03213664411894</v>
+        <v>113.583345248266</v>
       </c>
       <c r="Y4" t="n">
-        <v>64.03213664411894</v>
+        <v>113.583345248266</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E5" t="n">
-        <v>274.7999090013961</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>705.5748017933107</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>531.1217725121837</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>382.1873628509324</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>222.9499078454769</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>222.9499078454769</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4689,7 +4691,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>873.7901388133787</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4714,13 +4716,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F8" t="n">
-        <v>591.4512093066566</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G8" t="n">
         <v>487.4018176583718</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
         <v>234.810827406191</v>
@@ -4908,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="10">
@@ -4978,22 +4980,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
         <v>19.28114311021272</v>
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5069,22 +5071,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>264.694080783236</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>118.159522810121</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>118.159522810121</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5133,37 +5135,37 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="F14" t="n">
-        <v>730.8505943024719</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="G14" t="n">
-        <v>487.4018176583718</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>360.2295980564601</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C15" t="n">
-        <v>360.2295980564601</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D15" t="n">
-        <v>360.2295980564601</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E15" t="n">
-        <v>360.2295980564601</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>360.2295980564601</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
         <v>20.03527576299844</v>
@@ -5364,13 +5366,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5382,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>790.6398109613051</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="T15" t="n">
-        <v>588.4532163200711</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U15" t="n">
-        <v>360.2295980564601</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V15" t="n">
-        <v>360.2295980564601</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W15" t="n">
-        <v>360.2295980564601</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X15" t="n">
-        <v>360.2295980564601</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y15" t="n">
-        <v>360.2295980564601</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C16" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D16" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E16" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F16" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G16" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H16" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J16" t="n">
         <v>41.77557929797318</v>
@@ -5455,31 +5457,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S16" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T16" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U16" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V16" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W16" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X16" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>243.9530410142718</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C17" t="n">
-        <v>243.9530410142718</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D17" t="n">
-        <v>243.9530410142718</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E17" t="n">
-        <v>243.9530410142718</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F17" t="n">
-        <v>243.9530410142718</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>243.9530410142718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5542,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>243.9530410142718</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>243.9530410142718</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W17" t="n">
-        <v>243.9530410142718</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X17" t="n">
-        <v>243.9530410142718</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y17" t="n">
-        <v>243.9530410142718</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>561.3805079658983</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>412.4460983046471</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>253.2086432991916</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>106.6740853260766</v>
       </c>
       <c r="G18" t="n">
         <v>19.28114311021272</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>735.8335372470253</v>
       </c>
     </row>
     <row r="19">
@@ -5695,19 +5697,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C20" t="n">
-        <v>100.4273118130612</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D20" t="n">
-        <v>100.4273118130612</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>29.37402116780802</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>29.37402116780802</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>29.37402116780802</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W21" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>411.587349213889</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6020,19 +6022,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X23" t="n">
-        <v>710.516763498309</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y23" t="n">
-        <v>710.516763498309</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>547.1910343172051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C24" t="n">
-        <v>547.1910343172051</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D24" t="n">
-        <v>547.1910343172051</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E24" t="n">
         <v>508.9694238887622</v>
@@ -6075,13 +6077,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>547.1910343172051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>547.1910343172051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y24" t="n">
-        <v>547.1910343172051</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="25">
@@ -6169,28 +6171,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="C26" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="D26" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="E26" t="n">
+        <v>518.2486856454962</v>
+      </c>
+      <c r="F26" t="n">
         <v>274.7999090013961</v>
-      </c>
-      <c r="C26" t="n">
-        <v>274.7999090013961</v>
-      </c>
-      <c r="D26" t="n">
-        <v>31.35113235729608</v>
-      </c>
-      <c r="E26" t="n">
-        <v>31.35113235729608</v>
-      </c>
-      <c r="F26" t="n">
-        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
         <v>31.35113235729608</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>743.5980286395683</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>528.0732384820715</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="C27" t="n">
-        <v>473.9875657500345</v>
+        <v>326.2283997341556</v>
       </c>
       <c r="D27" t="n">
-        <v>325.0531560887832</v>
+        <v>326.2283997341556</v>
       </c>
       <c r="E27" t="n">
-        <v>165.8157010833278</v>
+        <v>326.2283997341556</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>179.6938417610405</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>40.96301634365605</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6306,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6339,16 +6341,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>735.8335372470253</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>735.8335372470253</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X27" t="n">
-        <v>735.8335372470253</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y27" t="n">
-        <v>528.0732384820715</v>
+        <v>500.6814290152826</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>518.2486856454962</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C29" t="n">
-        <v>518.2486856454962</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D29" t="n">
-        <v>518.2486856454962</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="E29" t="n">
-        <v>518.2486856454962</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="F29" t="n">
-        <v>274.7999090013961</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>399.5118995681682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C30" t="n">
-        <v>399.5118995681682</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D30" t="n">
-        <v>250.5774899069169</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E30" t="n">
-        <v>250.5774899069169</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F30" t="n">
-        <v>250.5774899069169</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G30" t="n">
-        <v>111.8466644895324</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>399.5118995681682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>399.5118995681682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X30" t="n">
-        <v>399.5118995681682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y30" t="n">
-        <v>399.5118995681682</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.0282188019862</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>509.4769954460863</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X32" t="n">
-        <v>509.4769954460863</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y32" t="n">
-        <v>509.4769954460863</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.8157010833278</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C33" t="n">
-        <v>165.8157010833278</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D33" t="n">
-        <v>165.8157010833278</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>772.472960762414</v>
       </c>
       <c r="T33" t="n">
-        <v>837.0429277842143</v>
+        <v>570.28636612118</v>
       </c>
       <c r="U33" t="n">
-        <v>608.8193095206034</v>
+        <v>570.28636612118</v>
       </c>
       <c r="V33" t="n">
-        <v>373.6672012888606</v>
+        <v>570.28636612118</v>
       </c>
       <c r="W33" t="n">
-        <v>373.6672012888606</v>
+        <v>570.28636612118</v>
       </c>
       <c r="X33" t="n">
-        <v>165.8157010833278</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y33" t="n">
-        <v>165.8157010833278</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="34">
@@ -6880,19 +6882,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V35" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7017,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>928.2922408909005</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>726.1056462496665</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>497.8820279860555</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V36" t="n">
-        <v>262.7299197543128</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W36" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C38" t="n">
         <v>262.7299197543128</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>354.6558939327403</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>354.6558939327403</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7254,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7284,19 +7286,19 @@
         <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>562.4161926976942</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="V39" t="n">
-        <v>562.4161926976942</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="W39" t="n">
-        <v>562.4161926976942</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X39" t="n">
-        <v>562.4161926976942</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y39" t="n">
-        <v>354.6558939327403</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="40">
@@ -7348,22 +7350,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
         <v>19.28114311021272</v>
@@ -7388,19 +7390,19 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7436,25 +7438,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="Y41" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>307.1033079837604</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7521,19 +7523,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X42" t="n">
-        <v>683.0789437687823</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y42" t="n">
-        <v>475.3186450038284</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7591,13 +7593,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>325.7766548071333</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>325.7766548071333</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D44" t="n">
-        <v>82.32787816303323</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E44" t="n">
-        <v>82.32787816303323</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>82.32787816303323</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>82.32787816303323</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>82.32787816303323</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
         <v>31.35113235729608</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T44" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U44" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V44" t="n">
-        <v>569.2254314512334</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W44" t="n">
-        <v>569.2254314512334</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X44" t="n">
-        <v>569.2254314512334</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y44" t="n">
-        <v>569.2254314512334</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>342.668582052591</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>168.215552771464</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7755,22 +7757,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X45" t="n">
-        <v>718.6442178376129</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y45" t="n">
-        <v>510.883919072659</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8310,7 +8312,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8781,13 +8783,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>185.8815939223662</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9012,16 +9014,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>301.248502863135</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9954,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,13 +10205,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11376,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22550,10 +22552,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>260.2725546269769</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22592,28 +22594,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>156.0341136990839</v>
       </c>
     </row>
     <row r="3">
@@ -22647,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22686,7 +22688,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>247.1144340662031</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22726,10 +22728,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>71.32518834398849</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>49.05569651810563</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22784,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>174.9274946967228</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>123.8085460246003</v>
       </c>
       <c r="E5" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22826,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22872,10 +22874,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -22884,7 +22886,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>116.3183492470194</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22954,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -23030,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G8" t="n">
-        <v>312.2938397833332</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>98.46051323810809</v>
@@ -23063,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23100,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23148,19 +23150,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23236,7 +23238,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23267,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>206.5399494528818</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23309,16 +23311,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23334,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>104.4890725112602</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>148.0596218681136</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23558,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>2.183215180595113</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,7 +23624,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>137.0224969565572</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23631,10 +23633,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>323.9120779467108</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>130.418315862507</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23811,19 +23813,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>50.82450436950545</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,22 +23971,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>301.5956630564418</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24014,13 +24016,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24029,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24048,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,7 +24059,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>135.0772631163645</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24096,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>14.31384691677781</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24187,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24215,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24260,13 +24262,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>128.71681180081</v>
@@ -24285,13 +24287,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>119.8056861312425</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24333,7 +24335,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24345,7 +24347,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24446,16 +24448,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>191.584972997977</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>140.6346519250378</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24506,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,22 +24524,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>119.1636829835991</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>90.77038973538757</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24579,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24588,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24616,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24664,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>182.3977453746509</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>334.968030499315</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24701,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,13 +24727,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,28 +24761,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>21.34216939722782</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24813,10 +24815,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24844,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24892,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>362.0075757138109</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,16 +24931,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24977,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>158.8955716431281</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -25005,19 +25007,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>82.172652455741</v>
       </c>
       <c r="T33" t="n">
-        <v>74.42064324566388</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25120,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25166,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>213.0080510862378</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25211,7 +25213,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>275.3266899823874</v>
       </c>
       <c r="W35" t="n">
         <v>108.226679839754</v>
@@ -25220,7 +25222,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25233,13 +25235,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>140.2596746115705</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25281,7 +25283,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>136.2759056302995</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25290,10 +25292,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25363,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D38" t="n">
         <v>113.6687527430239</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25451,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>118.1383550991213</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25524,13 +25526,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>75.52646921322412</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25588,7 +25590,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
         <v>86.16204325169439</v>
@@ -25606,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>121.6721164735665</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25643,7 +25645,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25676,7 +25678,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25688,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X41" t="n">
-        <v>366.4657846212723</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>145.2236497783945</v>
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25722,7 +25724,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25761,16 +25763,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>168.6188444567011</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25883,7 +25885,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>160.0089112227261</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25907,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>168.5437904531102</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25922,7 +25924,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25995,22 +25997,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>203.8284657848434</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>150.8536247525265</v>
       </c>
     </row>
     <row r="46">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575745</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490293.0738575743</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="C2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="D2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="E2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="F2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="G2" t="n">
         <v>108004.437145366</v>
@@ -26335,22 +26337,22 @@
         <v>108004.437145366</v>
       </c>
       <c r="J2" t="n">
+        <v>108004.437145366</v>
+      </c>
+      <c r="K2" t="n">
         <v>108004.4371453661</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>108004.437145366</v>
-      </c>
-      <c r="L2" t="n">
-        <v>108004.4371453661</v>
       </c>
       <c r="M2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="N2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="P2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26424,7 +26426,7 @@
         <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>16914.68964098084</v>
+        <v>16914.68964098083</v>
       </c>
       <c r="F4" t="n">
         <v>16914.68964098084</v>
@@ -26436,7 +26438,7 @@
         <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>16914.68964098084</v>
+        <v>16914.68964098083</v>
       </c>
       <c r="J4" t="n">
         <v>16914.68964098084</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37960.95279092419</v>
+        <v>-37960.95279092421</v>
       </c>
       <c r="C6" t="n">
-        <v>42808.47874062352</v>
+        <v>42808.47874062353</v>
       </c>
       <c r="D6" t="n">
-        <v>42808.47874062356</v>
+        <v>42808.47874062353</v>
       </c>
       <c r="E6" t="n">
-        <v>76436.07874062353</v>
+        <v>76436.07874062355</v>
       </c>
       <c r="F6" t="n">
-        <v>76436.07874062356</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="G6" t="n">
         <v>76436.07874062352</v>
       </c>
       <c r="H6" t="n">
+        <v>76436.07874062352</v>
+      </c>
+      <c r="I6" t="n">
+        <v>76436.07874062355</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13376.13614151729</v>
+      </c>
+      <c r="K6" t="n">
+        <v>76436.07874062355</v>
+      </c>
+      <c r="L6" t="n">
         <v>76436.07874062353</v>
-      </c>
-      <c r="I6" t="n">
-        <v>76436.07874062352</v>
-      </c>
-      <c r="J6" t="n">
-        <v>13376.13614151732</v>
-      </c>
-      <c r="K6" t="n">
-        <v>76436.0787406235</v>
-      </c>
-      <c r="L6" t="n">
-        <v>76436.07874062355</v>
       </c>
       <c r="M6" t="n">
         <v>76436.0787406235</v>
       </c>
       <c r="N6" t="n">
-        <v>76436.07874062356</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="O6" t="n">
-        <v>76436.07874062355</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="P6" t="n">
-        <v>76436.0787406235</v>
+        <v>76436.07874062353</v>
       </c>
     </row>
   </sheetData>
@@ -34705,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34778,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35018,7 +35020,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35030,7 +35032,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35179,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35422,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35501,13 +35503,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>43.28534947792182</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35732,16 +35734,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>169.9067907798017</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -36133,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,13 +36925,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37081,7 +37083,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38029,7 +38031,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38096,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
